--- a/Documents/3. 설계/2. 스토리보드/StoryBoard_회원관리.xlsx
+++ b/Documents/3. 설계/2. 스토리보드/StoryBoard_회원관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC6036F-9792-4C5B-AC04-B9C37BE57455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559715C4-4811-4EEF-9B9B-91C1F67A25EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{47FF7444-47B1-4673-B3A7-605210B647C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{47FF7444-47B1-4673-B3A7-605210B647C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,11 +230,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보 저장</t>
+    <t>회원 탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 탈퇴</t>
+    <t>현재 비밀번호 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 번경 확인 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,9 +547,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1966,15 +1975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1989,7 +1998,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9115425" y="3429000"/>
+          <a:off x="9086850" y="2800350"/>
           <a:ext cx="1771650" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2059,15 +2068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2082,8 +2091,61 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7581900" y="2962275"/>
-          <a:ext cx="1504950" cy="561975"/>
+          <a:off x="7610475" y="2895601"/>
+          <a:ext cx="1438275" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B14BF6-4416-455D-A014-5BF4DAEE68F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7667625" y="3305175"/>
+          <a:ext cx="1428751" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2112,31 +2174,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>638177</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104778</xdr:rowOff>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B14BF6-4416-455D-A014-5BF4DAEE68F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0964151B-12EC-492A-B36B-51EEFE859777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7610477" y="3352803"/>
-          <a:ext cx="1504948" cy="428622"/>
+        <a:xfrm flipH="1">
+          <a:off x="7591426" y="3600450"/>
+          <a:ext cx="1543049" cy="314326"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2164,23 +2226,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0964151B-12EC-492A-B36B-51EEFE859777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B77F47-A9FE-441E-B088-05EA435BC681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,8 +2250,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7543800" y="3886200"/>
-          <a:ext cx="1571625" cy="104776"/>
+          <a:off x="8353425" y="3648075"/>
+          <a:ext cx="933450" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2217,69 +2279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B77F47-A9FE-441E-B088-05EA435BC681}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8162925" y="4343400"/>
-          <a:ext cx="1019175" cy="438151"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2294,8 +2303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048750" y="5334000"/>
-          <a:ext cx="2057400" cy="923925"/>
+          <a:off x="9020175" y="6410325"/>
+          <a:ext cx="2057400" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2359,14 +2368,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2384,8 +2393,256 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7648575" y="5795963"/>
-          <a:ext cx="1400175" cy="52387"/>
+          <a:off x="7620000" y="6881813"/>
+          <a:ext cx="1400175" cy="61912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CD488D-BA20-4E29-A622-E59640F2C54A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="4476749"/>
+          <a:ext cx="2057400" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>현재 비밀번호는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>@@@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>로</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>표시되고 비밀번호 변경을 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>적지 않으면 현재 비밀번호로 유지된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E0D32D-8D0D-4BF0-80C6-25E0767EC1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7620000" y="4600575"/>
+          <a:ext cx="2686050" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADC42F3-D591-4D1B-BE90-06C9174D8EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7639050" y="5019675"/>
+          <a:ext cx="2686050" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CBE9C8-A372-45AA-AE46-168CA729BDF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7600950" y="5438775"/>
+          <a:ext cx="2686050" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3010,454 +3267,454 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
     </row>
     <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="28"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
     </row>
     <row r="27" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3487,546 +3744,546 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="33" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33" t="s">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="34"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="25"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="25"/>
     </row>
     <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="25"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4064,25 +4321,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="16" t="s">
         <v>12</v>
       </c>
@@ -4094,541 +4351,547 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="31" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="35" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35" t="s">
+      <c r="R9" s="35"/>
+      <c r="S9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35" t="s">
+      <c r="T9" s="35"/>
+      <c r="U9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="32"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="23"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="22"/>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="26"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="25"/>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="25"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="26"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="25"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="25"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="25"/>
     </row>
     <row r="16" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="25"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="26"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="25"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="25"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="26"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="25"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="25"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="26"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="25"/>
     </row>
     <row r="22" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="25"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="26"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="25"/>
     </row>
     <row r="24" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="26"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="25"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="26"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="25"/>
     </row>
     <row r="26" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="29"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="28"/>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="22"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="26"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="25"/>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="26"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="25"/>
     </row>
     <row r="30" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="29"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="T6:V8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="H10:V26"/>
+    <mergeCell ref="E17:G26"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="E27:V30"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="H9:J9"/>
@@ -4645,12 +4908,6 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="H10:V26"/>
-    <mergeCell ref="E17:G26"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4676,25 +4933,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="16" t="s">
         <v>12</v>
       </c>
@@ -4706,100 +4963,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="30" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="30" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="30" t="s">
+      <c r="N9" s="31"/>
+      <c r="O9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="30" t="s">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="32"/>
-      <c r="S9" s="30" t="s">
+      <c r="R9" s="31"/>
+      <c r="S9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="32"/>
-      <c r="U9" s="30" t="s">
+      <c r="T9" s="31"/>
+      <c r="U9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="32"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="4"/>
@@ -4825,10 +5082,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -4908,16 +5165,16 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="18" t="s">
         <v>32</v>
       </c>
       <c r="Q15" s="11"/>
@@ -4952,14 +5209,14 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
@@ -4994,14 +5251,14 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
@@ -5036,14 +5293,14 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
@@ -5078,16 +5335,16 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="25"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q23" s="11"/>
@@ -5102,14 +5359,14 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="10"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="24"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="11"/>
@@ -5124,12 +5381,12 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="11"/>
@@ -5144,14 +5401,14 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
@@ -5166,14 +5423,14 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="25" t="s">
+      <c r="L27" s="19"/>
+      <c r="M27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="25"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="11"/>
@@ -5248,14 +5505,14 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="11"/>
@@ -5273,9 +5530,9 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="26"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="11"/>
@@ -5293,9 +5550,9 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="11"/>
@@ -5350,11 +5607,11 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
       <c r="L36" s="10"/>
       <c r="M36" s="16"/>
       <c r="N36" s="10"/>
@@ -5371,8 +5628,8 @@
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -5459,10 +5716,10 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="21" t="s">
+      <c r="P41" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="23"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
@@ -5481,8 +5738,8 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="29"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="28"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
@@ -5550,99 +5807,100 @@
       <c r="V45" s="11"/>
     </row>
     <row r="46" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="23"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="22"/>
     </row>
     <row r="47" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="26"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="25"/>
     </row>
     <row r="48" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="26"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="25"/>
     </row>
     <row r="49" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="29"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="P41:Q42"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="L31:N33"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="E46:V49"/>
     <mergeCell ref="I15:J15"/>
@@ -5659,17 +5917,16 @@
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="P41:Q42"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="L31:N33"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:S8"/>
+    <mergeCell ref="T6:V8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5694,25 +5951,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="16" t="s">
         <v>12</v>
       </c>
@@ -5724,100 +5981,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="35" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35" t="s">
+      <c r="R9" s="35"/>
+      <c r="S9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35" t="s">
+      <c r="T9" s="35"/>
+      <c r="U9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="32"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E10" s="9"/>
@@ -5865,10 +6122,10 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -5927,10 +6184,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -5973,14 +6230,14 @@
         <v>24</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="23"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="11"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -5999,8 +6256,8 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="26"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="25"/>
       <c r="R18" s="11"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -6017,12 +6274,12 @@
         <v>40</v>
       </c>
       <c r="K19" s="10"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="29"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="28"/>
       <c r="R19" s="11"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -6075,10 +6332,10 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="23"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -6097,8 +6354,8 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="29"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -6217,11 +6474,11 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -6263,14 +6520,14 @@
         <v>42</v>
       </c>
       <c r="K31" s="10"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="32"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="21" t="s">
+      <c r="P31" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" s="23"/>
+      <c r="Q31" s="22"/>
       <c r="R31" s="11"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -6289,8 +6546,8 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="26"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="25"/>
       <c r="R32" s="11"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
@@ -6307,12 +6564,12 @@
         <v>43</v>
       </c>
       <c r="K33" s="10"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="29"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="28"/>
       <c r="R33" s="11"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
@@ -6500,89 +6757,100 @@
       <c r="V42" s="14"/>
     </row>
     <row r="43" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="23"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="22"/>
     </row>
     <row r="44" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="26"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="25"/>
     </row>
     <row r="45" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="26"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="25"/>
     </row>
     <row r="46" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="29"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="P31:Q33"/>
+    <mergeCell ref="E43:V46"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="L31:N31"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="E5:F6"/>
@@ -6595,17 +6863,6 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="P31:Q33"/>
-    <mergeCell ref="E43:V46"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="L31:N31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6630,25 +6887,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="16" t="s">
         <v>12</v>
       </c>
@@ -6660,100 +6917,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="35" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35" t="s">
+      <c r="R9" s="35"/>
+      <c r="S9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35" t="s">
+      <c r="T9" s="35"/>
+      <c r="U9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="32"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
@@ -6780,10 +7037,10 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -6842,13 +7099,13 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="32"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -6884,13 +7141,13 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="32"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -6946,13 +7203,13 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="32"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -7008,14 +7265,14 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="11"/>
@@ -7033,9 +7290,9 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="11"/>
@@ -7053,9 +7310,9 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="11"/>
@@ -7110,20 +7367,20 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="23"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="21" t="s">
+      <c r="O27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="23"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -7136,14 +7393,14 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="29"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="29"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="28"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="29"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -7272,89 +7529,102 @@
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="23"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="22"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="26"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="26"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="25"/>
     </row>
     <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="29"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L22:N24"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E35:V38"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O27:P28"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="G5:S8"/>
     <mergeCell ref="T6:V8"/>
@@ -7367,19 +7637,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="E35:V38"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L22:N24"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7389,10 +7646,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223ECE7C-6D05-4D7E-989F-340137EC1053}">
-  <dimension ref="E4:V38"/>
+  <dimension ref="E4:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7403,25 +7660,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="16" t="s">
         <v>12</v>
       </c>
@@ -7433,100 +7690,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="35" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35" t="s">
+      <c r="R9" s="35"/>
+      <c r="S9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35" t="s">
+      <c r="T9" s="35"/>
+      <c r="U9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="32"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
@@ -7553,10 +7810,10 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -7601,6 +7858,873 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="11"/>
+    </row>
+    <row r="30" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="31" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="22"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="11"/>
+    </row>
+    <row r="33" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="11"/>
+    </row>
+    <row r="34" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="11"/>
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="11"/>
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="11"/>
+    </row>
+    <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="14"/>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="22"/>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="25"/>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="25"/>
+    </row>
+    <row r="42" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E39:V42"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:N30"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:S8"/>
+    <mergeCell ref="T6:V8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DC16A1-856F-4D36-B763-833F9274C211}">
+  <dimension ref="E4:V38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="7" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
+    </row>
+    <row r="7" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+    </row>
+    <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="35"/>
+      <c r="S9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="35"/>
+      <c r="U9" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="31"/>
+    </row>
+    <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
@@ -7615,14 +8739,14 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="25"/>
+      <c r="I14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="24"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="10"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="11"/>
@@ -7657,14 +8781,14 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="25"/>
+      <c r="I16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="24"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="10"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="11"/>
@@ -7674,7 +8798,7 @@
       <c r="U16" s="10"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -7682,10 +8806,8 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -7716,19 +8838,19 @@
       <c r="U18" s="10"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="25"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="22"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
@@ -7746,11 +8868,9 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
@@ -7764,16 +8884,16 @@
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7784,18 +8904,16 @@
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="25"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7806,36 +8924,36 @@
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="11"/>
     </row>
-    <row r="24" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="11"/>
+      <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
@@ -7846,7 +8964,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -7855,18 +8973,18 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="26" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -7875,7 +8993,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="11"/>
+      <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
@@ -7886,60 +9004,56 @@
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="23"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="23"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="11"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="11"/>
     </row>
-    <row r="28" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="29"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="29"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="11"/>
+      <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="11"/>
     </row>
-    <row r="29" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
@@ -8047,91 +9161,98 @@
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="23"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="22"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="26"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="26"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="25"/>
     </row>
     <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="29"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="19">
+    <mergeCell ref="E35:V38"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="G5:S8"/>
     <mergeCell ref="T6:V8"/>
@@ -8142,777 +9263,6 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="E35:V38"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:N24"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="L27:M28"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DC16A1-856F-4D36-B763-833F9274C211}">
-  <dimension ref="E4:V38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="7" width="5.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
-    </row>
-    <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
-    </row>
-    <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
-    </row>
-    <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="V9" s="32"/>
-    </row>
-    <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11"/>
-    </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
-    </row>
-    <row r="20" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
-    </row>
-    <row r="21" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
-    </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
-    </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
-    </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-    </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-    </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
-    </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
-    </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
-    </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
-    </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
-    </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
-    </row>
-    <row r="32" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="11"/>
-    </row>
-    <row r="33" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="11"/>
-    </row>
-    <row r="34" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="14"/>
-    </row>
-    <row r="35" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E35" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="23"/>
-    </row>
-    <row r="36" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="26"/>
-    </row>
-    <row r="37" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="26"/>
-    </row>
-    <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="E35:V38"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/3. 설계/2. 스토리보드/StoryBoard_회원관리.xlsx
+++ b/Documents/3. 설계/2. 스토리보드/StoryBoard_회원관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559715C4-4811-4EEF-9B9B-91C1F67A25EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C984D-96BE-471A-B7D1-7D2F25C0A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{47FF7444-47B1-4673-B3A7-605210B647C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{47FF7444-47B1-4673-B3A7-605210B647C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>회원 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +606,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4310,7 +4317,7 @@
   <dimension ref="E4:V30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+      <selection activeCell="E5" sqref="E5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4339,15 +4346,17 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>13</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4365,7 +4374,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
@@ -4886,12 +4895,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="H10:V26"/>
-    <mergeCell ref="E17:G26"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="E27:V30"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="H9:J9"/>
@@ -4907,7 +4910,13 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="G5:S8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="H10:V26"/>
+    <mergeCell ref="E17:G26"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="S6:V8"/>
+    <mergeCell ref="G5:R8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4920,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EBA4B1-5BFF-4B61-A9CB-FC463E8620A5}">
   <dimension ref="E4:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4951,15 +4960,17 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>13</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4977,7 +4988,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
@@ -5890,18 +5901,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="P41:Q42"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="L31:N33"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="S6:V8"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G5:R8"/>
     <mergeCell ref="E46:V49"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I17:J17"/>
@@ -5917,16 +5926,18 @@
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="P41:Q42"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="L31:N33"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5940,7 +5951,7 @@
   <dimension ref="E4:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5969,15 +5980,17 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>13</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5995,7 +6008,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
@@ -6840,6 +6853,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G5:R8"/>
+    <mergeCell ref="S6:V8"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="P31:Q33"/>
     <mergeCell ref="E43:V46"/>
@@ -6851,18 +6876,6 @@
     <mergeCell ref="J22:K23"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="L31:N31"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6876,7 +6889,7 @@
   <dimension ref="E4:V38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6905,15 +6918,17 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>13</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6931,7 +6946,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
@@ -7612,22 +7627,7 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L22:N24"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E35:V38"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O27:P28"/>
     <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
@@ -7637,6 +7637,21 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
+    <mergeCell ref="G5:R8"/>
+    <mergeCell ref="S6:V8"/>
+    <mergeCell ref="E35:V38"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L22:N24"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7648,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223ECE7C-6D05-4D7E-989F-340137EC1053}">
   <dimension ref="E4:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7678,15 +7693,17 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>13</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7704,7 +7721,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
@@ -8473,6 +8490,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G5:R8"/>
+    <mergeCell ref="S6:V8"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
     <mergeCell ref="L32:M33"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="E39:V42"/>
@@ -8489,20 +8520,6 @@
     <mergeCell ref="I32:J33"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8515,8 +8532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DC16A1-856F-4D36-B763-833F9274C211}">
   <dimension ref="E4:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8545,15 +8562,17 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>13</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8571,7 +8590,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
@@ -9244,6 +9263,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S6:V8"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G5:R8"/>
     <mergeCell ref="E35:V38"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="L16:N16"/>
@@ -9253,16 +9282,6 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
